--- a/icd_files/68857.xlsx
+++ b/icd_files/68857.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9B6C6F-2BBC-477C-82EA-46A21233FC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC88F5-0155-423F-A037-B12E3A398B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="501">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -780,6 +780,9 @@
     <t>12-24</t>
   </si>
   <si>
+    <t>12-25</t>
+  </si>
+  <si>
     <t>12-26</t>
   </si>
   <si>
@@ -810,9 +813,15 @@
     <t>01-04</t>
   </si>
   <si>
+    <t>01-05</t>
+  </si>
+  <si>
     <t>01-06</t>
   </si>
   <si>
+    <t>01-07</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -822,24 +831,183 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>FoLIC Acid</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>CloniDINE</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Phenylephrine</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
-    <t>Lorazepam</t>
-  </si>
-  <si>
-    <t>5% Dextrose</t>
+    <t>Morphine Sulfate</t>
+  </si>
+  <si>
+    <t>HydrALAzine</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
+    <t>HYDROmorphone (Dilaudid)</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Simvastatin</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Dexamethasone</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Ketamine</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Glucagon</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Chlorhexidine Gluconate 0.12% Oral Rinse</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Dextrose 50%</t>
+  </si>
+  <si>
+    <t>Clonidine Patch 0.1 mg/24 hr</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin IV</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Milk of Magnesia</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OxycoDONE (Immediate Release) </t>
+  </si>
+  <si>
+    <t>Cefpodoxime Proxetil</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>0.5-1 TAB</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>1000 BAG</t>
   </si>
   <si>
+    <t>2-4 SYR</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>1000 mL</t>
   </si>
   <si>
+    <t>2-4 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>2 TAB</t>
+  </si>
+  <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
     <t>12:47</t>
   </si>
   <si>
@@ -873,6 +1041,24 @@
     <t>23:00</t>
   </si>
   <si>
+    <t>60 mL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
+  </si>
+  <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
     <t>01:00</t>
   </si>
   <si>
@@ -921,6 +1107,15 @@
     <t>2 mL</t>
   </si>
   <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>0.1 TAB</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
     <t>00:13</t>
   </si>
   <si>
@@ -963,30 +1158,69 @@
     <t>18:06</t>
   </si>
   <si>
+    <t>250 mL</t>
+  </si>
+  <si>
+    <t>60 VIAL</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
     <t>1-2 mL</t>
   </si>
   <si>
-    <t>250 mL</t>
-  </si>
-  <si>
-    <t>1 mL</t>
+    <t>200 VIAL</t>
   </si>
   <si>
     <t>500 mL</t>
   </si>
   <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>15 UDCUP</t>
+  </si>
+  <si>
+    <t>30 mL</t>
+  </si>
+  <si>
+    <t>25-100 mL</t>
+  </si>
+  <si>
     <t>Inappropriate Words</t>
   </si>
   <si>
     <t>0.5-2 mL</t>
   </si>
   <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>12.5 SYR</t>
+  </si>
+  <si>
+    <t>1 PTCH</t>
+  </si>
+  <si>
     <t>08:21</t>
   </si>
   <si>
     <t>14:19</t>
   </si>
   <si>
+    <t>0.5-1 SYR</t>
+  </si>
+  <si>
     <t>07:23</t>
   </si>
   <si>
@@ -996,7 +1230,10 @@
     <t>19:15</t>
   </si>
   <si>
-    <t>100 BAG</t>
+    <t>400 BAG</t>
+  </si>
+  <si>
+    <t>30 UDCUP</t>
   </si>
   <si>
     <t>12:11</t>
@@ -1006,6 +1243,15 @@
   </si>
   <si>
     <t>16:16</t>
+  </si>
+  <si>
+    <t>5-10 TAB</t>
+  </si>
+  <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4718,7 +4964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000000-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6100,7 +6346,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000001-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7482,7 +7728,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000002-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8969,7 +9215,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000003-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10420,7 +10666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000004-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11349,7 +11595,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000005-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12159,7 +12405,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000006-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12972,7 +13218,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000007-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13782,7 +14028,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000008-0758-4E16-9CBF-043DB1CFEC63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14225,7 +14471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBE21A8-AF02-4DA7-84AF-CCEED8C18B98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6563DC40-13A1-4A1E-BD74-0BD3F8286E31}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -14250,7 +14496,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>328</v>
+        <v>410</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14263,7 +14509,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -14276,7 +14522,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -14289,7 +14535,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -14302,27 +14548,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>334</v>
+        <v>416</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>335</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -14350,7 +14596,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -14378,11 +14624,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -14405,7 +14651,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14442,7 +14688,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -14465,14 +14711,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -14495,14 +14741,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -14525,14 +14771,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -14555,14 +14801,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -14585,16 +14831,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -14617,14 +14863,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -14647,10 +14893,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -14658,7 +14904,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -14670,7 +14916,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -14693,7 +14939,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -14709,11 +14955,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -14736,7 +14982,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -14754,7 +15000,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -14777,7 +15023,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -14796,7 +15042,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -14819,10 +15065,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>355</v>
+        <v>437</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -14840,7 +15086,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -14863,52 +15109,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -14931,53 +15177,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -15000,43 +15246,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -15044,7 +15290,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -15067,43 +15313,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -15111,7 +15357,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -15134,43 +15380,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -15178,7 +15424,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -15201,43 +15447,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -15245,7 +15491,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -15268,43 +15514,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -15312,7 +15558,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -15335,43 +15581,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -15379,7 +15625,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -15402,43 +15648,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -15446,7 +15692,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -15469,43 +15715,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -15513,7 +15759,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -15536,43 +15782,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -15580,7 +15826,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -15603,43 +15849,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -15647,7 +15893,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -15670,43 +15916,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -15714,7 +15960,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -15737,7 +15983,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -15750,10 +15996,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -15761,7 +16007,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -15784,14 +16030,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>379</v>
+        <v>461</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -15806,7 +16052,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -15829,7 +16075,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -15849,7 +16095,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -15872,7 +16118,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -15892,7 +16138,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -15915,7 +16161,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -15933,11 +16179,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -15960,14 +16206,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -15990,14 +16236,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -16020,14 +16266,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -16050,14 +16296,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -16080,14 +16326,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -16110,14 +16356,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -16140,10 +16386,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -16160,7 +16406,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -16183,7 +16429,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -16201,7 +16447,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -16224,7 +16470,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -16242,7 +16488,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -16265,14 +16511,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -16295,14 +16541,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -16325,24 +16571,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -16365,7 +16611,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -16374,7 +16620,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -16397,14 +16643,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -16412,7 +16658,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -16435,7 +16681,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -16444,7 +16690,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>393</v>
+        <v>475</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -16467,14 +16713,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>393</v>
+        <v>475</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>394</v>
+        <v>476</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -16482,7 +16728,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -16505,7 +16751,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -16514,7 +16760,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -16537,24 +16783,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -16577,7 +16823,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -16586,7 +16832,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -16609,22 +16855,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -16632,7 +16878,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -16655,7 +16901,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -16668,7 +16914,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -16691,32 +16937,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -16739,7 +16985,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -16748,7 +16994,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -16771,14 +17017,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -16786,7 +17032,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -16809,14 +17055,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -16839,12 +17085,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -16872,7 +17118,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -16899,13 +17145,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -16933,7 +17179,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -17045,7 +17291,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -17073,7 +17319,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -17101,7 +17347,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -22610,13 +22856,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:CE38"/>
+  <dimension ref="A30:CT78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>249</v>
       </c>
@@ -22624,39 +22870,39 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>253</v>
@@ -22665,49 +22911,49 @@
         <v>253</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD31" s="1" t="s">
         <v>254</v>
@@ -22731,7 +22977,7 @@
         <v>254</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL31" s="1" t="s">
         <v>255</v>
@@ -22755,10 +23001,10 @@
         <v>255</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AU31" s="1" t="s">
         <v>256</v>
@@ -22782,7 +23028,7 @@
         <v>256</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>257</v>
@@ -22800,10 +23046,10 @@
         <v>257</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BJ31" s="1" t="s">
         <v>258</v>
@@ -22818,843 +23064,1646 @@
         <v>258</v>
       </c>
       <c r="BN31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BO31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS31" s="1" t="s">
         <v>259</v>
       </c>
       <c r="BT31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="CG31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="CH31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="CI31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CL31" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CM31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H32" t="s">
+        <v>332</v>
+      </c>
+      <c r="I32" t="s">
+        <v>333</v>
+      </c>
+      <c r="J32" t="s">
+        <v>334</v>
+      </c>
+      <c r="K32" t="s">
+        <v>335</v>
+      </c>
+      <c r="L32" t="s">
+        <v>336</v>
+      </c>
+      <c r="M32" t="s">
+        <v>337</v>
+      </c>
+      <c r="N32" t="s">
+        <v>338</v>
+      </c>
+      <c r="O32" t="s">
+        <v>312</v>
+      </c>
+      <c r="P32" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>312</v>
+      </c>
+      <c r="R32" t="s">
+        <v>312</v>
+      </c>
+      <c r="S32" t="s">
+        <v>312</v>
+      </c>
+      <c r="T32" t="s">
+        <v>312</v>
+      </c>
+      <c r="U32" t="s">
+        <v>345</v>
+      </c>
+      <c r="V32" t="s">
+        <v>346</v>
+      </c>
+      <c r="W32" t="s">
+        <v>347</v>
+      </c>
+      <c r="X32" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>376</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>377</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>337</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>347</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>356</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>358</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>348</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>365</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>356</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>358</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>348</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>396</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>397</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>337</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>348</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>399</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>400</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>401</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>347</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>365</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>404</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>358</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>348</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>405</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>356</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>406</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" t="s">
+        <v>329</v>
+      </c>
+      <c r="I33" t="s">
+        <v>329</v>
+      </c>
+      <c r="J33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K33" t="s">
+        <v>329</v>
+      </c>
+      <c r="L33" t="s">
+        <v>329</v>
+      </c>
+      <c r="M33" t="s">
+        <v>329</v>
+      </c>
+      <c r="N33" t="s">
+        <v>329</v>
+      </c>
+      <c r="O33" t="s">
+        <v>329</v>
+      </c>
+      <c r="P33" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>329</v>
+      </c>
+      <c r="R33" t="s">
+        <v>329</v>
+      </c>
+      <c r="S33" t="s">
+        <v>329</v>
+      </c>
+      <c r="T33" t="s">
+        <v>329</v>
+      </c>
+      <c r="U33" t="s">
+        <v>329</v>
+      </c>
+      <c r="V33" t="s">
+        <v>329</v>
+      </c>
+      <c r="W33" t="s">
+        <v>329</v>
+      </c>
+      <c r="X33" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>353</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>391</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" t="s">
+        <v>330</v>
+      </c>
+      <c r="H34" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" t="s">
+        <v>330</v>
+      </c>
+      <c r="J34" t="s">
+        <v>330</v>
+      </c>
+      <c r="K34" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" t="s">
+        <v>330</v>
+      </c>
+      <c r="M34" t="s">
+        <v>330</v>
+      </c>
+      <c r="N34" t="s">
+        <v>330</v>
+      </c>
+      <c r="O34" t="s">
+        <v>330</v>
+      </c>
+      <c r="P34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>330</v>
+      </c>
+      <c r="R34" t="s">
+        <v>330</v>
+      </c>
+      <c r="S34" t="s">
+        <v>330</v>
+      </c>
+      <c r="T34" t="s">
+        <v>330</v>
+      </c>
+      <c r="U34" t="s">
+        <v>330</v>
+      </c>
+      <c r="V34" t="s">
+        <v>330</v>
+      </c>
+      <c r="W34" t="s">
+        <v>330</v>
+      </c>
+      <c r="X34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>375</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>375</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>369</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>375</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>375</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>375</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>369</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>375</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>375</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>375</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E36" t="s">
+        <v>319</v>
+      </c>
+      <c r="O36" t="s">
+        <v>319</v>
+      </c>
+      <c r="P36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>319</v>
+      </c>
+      <c r="R36" t="s">
+        <v>319</v>
+      </c>
+      <c r="S36" t="s">
+        <v>319</v>
+      </c>
+      <c r="T36" t="s">
+        <v>319</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>378</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>344</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>324</v>
+      </c>
+      <c r="P37" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>324</v>
+      </c>
+      <c r="R37" t="s">
+        <v>324</v>
+      </c>
+      <c r="S37" t="s">
+        <v>324</v>
+      </c>
+      <c r="T37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" t="s">
+        <v>325</v>
+      </c>
+      <c r="O38" t="s">
+        <v>325</v>
+      </c>
+      <c r="P38" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>325</v>
+      </c>
+      <c r="R38" t="s">
+        <v>325</v>
+      </c>
+      <c r="S38" t="s">
+        <v>325</v>
+      </c>
+      <c r="T38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E32" t="s">
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" t="s">
+        <v>326</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>326</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>382</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>326</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>326</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>324</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>392</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>339</v>
+      </c>
+      <c r="P41" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>343</v>
+      </c>
+      <c r="R41" t="s">
+        <v>343</v>
+      </c>
+      <c r="S41" t="s">
+        <v>343</v>
+      </c>
+      <c r="T41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F32" t="s">
+      <c r="O42" t="s">
+        <v>340</v>
+      </c>
+      <c r="P42" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>344</v>
+      </c>
+      <c r="R42" t="s">
+        <v>340</v>
+      </c>
+      <c r="S42" t="s">
+        <v>342</v>
+      </c>
+      <c r="T42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G32" t="s">
+      <c r="O43" t="s">
+        <v>341</v>
+      </c>
+      <c r="P43" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>341</v>
+      </c>
+      <c r="R43" t="s">
+        <v>341</v>
+      </c>
+      <c r="S43" t="s">
+        <v>341</v>
+      </c>
+      <c r="T43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H32" t="s">
+      <c r="E44" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I32" t="s">
+      <c r="AK45" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J32" t="s">
+      <c r="AK46" t="s">
+        <v>363</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>383</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>383</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>383</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K32" t="s">
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L32" t="s">
+      <c r="BC48" t="s">
+        <v>379</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M32" t="s">
-        <v>269</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="B49" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>384</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>384</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>384</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="O32" t="s">
+      <c r="B50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="P32" t="s">
+      <c r="B51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="B52" t="s">
+        <v>319</v>
+      </c>
+      <c r="C52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="R32" t="s">
+      <c r="B53" t="s">
+        <v>320</v>
+      </c>
+      <c r="C53" t="s">
+        <v>320</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="S32" t="s">
+      <c r="B54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" t="s">
+        <v>321</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL54" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="T32" t="s">
+      <c r="B55" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="U32" t="s">
+      <c r="BC56" t="s">
+        <v>380</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>380</v>
+      </c>
+      <c r="CL56" t="s">
+        <v>380</v>
+      </c>
+      <c r="CM56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="V32" t="s">
+      <c r="BC57" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>381</v>
+      </c>
+      <c r="CS57" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>385</v>
+      </c>
+      <c r="BK58" t="s">
+        <v>385</v>
+      </c>
+      <c r="BL58" t="s">
+        <v>385</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="W32" t="s">
+      <c r="BJ59" t="s">
+        <v>361</v>
+      </c>
+      <c r="BK59" t="s">
+        <v>361</v>
+      </c>
+      <c r="BL59" t="s">
+        <v>361</v>
+      </c>
+      <c r="BM59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="X32" t="s">
+      <c r="BJ60" t="s">
+        <v>325</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>325</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="BJ61" t="s">
+        <v>325</v>
+      </c>
+      <c r="BK61" t="s">
+        <v>390</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>325</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="BJ62" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>386</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="BJ63" t="s">
+        <v>387</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>387</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>387</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AB32" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="BJ64" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK64" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL64" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>388</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>388</v>
+      </c>
+      <c r="BL65" t="s">
+        <v>388</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AF32" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="BJ66" t="s">
+        <v>389</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>389</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>389</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="BS67" t="s">
+        <v>393</v>
+      </c>
+      <c r="BT67" t="s">
+        <v>393</v>
+      </c>
+      <c r="CR67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="BS68" t="s">
+        <v>394</v>
+      </c>
+      <c r="BT68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="BS69" t="s">
+        <v>395</v>
+      </c>
+      <c r="BT69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CF70" t="s">
+        <v>402</v>
+      </c>
+      <c r="CS70" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="CF72" t="s">
+        <v>342</v>
+      </c>
+      <c r="CL72" t="s">
+        <v>342</v>
+      </c>
+      <c r="CM72" t="s">
+        <v>342</v>
+      </c>
+      <c r="CS72" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AO32" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP32" t="s">
+      <c r="CF73" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL73" t="s">
+        <v>316</v>
+      </c>
+      <c r="CM73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CF74" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL75" t="s">
+        <v>316</v>
+      </c>
+      <c r="CM75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="CL76" t="s">
+        <v>344</v>
+      </c>
+      <c r="CM76" t="s">
+        <v>344</v>
+      </c>
+      <c r="CT76" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CR77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AR32" t="s">
-        <v>312</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>285</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>300</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>294</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>296</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>300</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>294</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>296</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>319</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>281</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>321</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>322</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>323</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>282</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>285</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>300</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>325</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>296</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>269</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>286</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>326</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>294</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F33" t="s">
-        <v>273</v>
-      </c>
-      <c r="G33" t="s">
-        <v>273</v>
-      </c>
-      <c r="H33" t="s">
-        <v>273</v>
-      </c>
-      <c r="I33" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" t="s">
-        <v>273</v>
-      </c>
-      <c r="K33" t="s">
-        <v>273</v>
-      </c>
-      <c r="L33" t="s">
-        <v>273</v>
-      </c>
-      <c r="M33" t="s">
-        <v>273</v>
-      </c>
-      <c r="N33" t="s">
-        <v>273</v>
-      </c>
-      <c r="O33" t="s">
-        <v>273</v>
-      </c>
-      <c r="P33" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>273</v>
-      </c>
-      <c r="R33" t="s">
-        <v>273</v>
-      </c>
-      <c r="S33" t="s">
-        <v>273</v>
-      </c>
-      <c r="T33" t="s">
-        <v>273</v>
-      </c>
-      <c r="U33" t="s">
-        <v>291</v>
-      </c>
-      <c r="V33" t="s">
-        <v>291</v>
-      </c>
-      <c r="W33" t="s">
-        <v>291</v>
-      </c>
-      <c r="X33" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>307</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>317</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>307</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>291</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>291</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>291</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>291</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F34" t="s">
-        <v>274</v>
-      </c>
-      <c r="G34" t="s">
-        <v>274</v>
-      </c>
-      <c r="H34" t="s">
-        <v>274</v>
-      </c>
-      <c r="I34" t="s">
-        <v>274</v>
-      </c>
-      <c r="J34" t="s">
-        <v>274</v>
-      </c>
-      <c r="K34" t="s">
-        <v>274</v>
-      </c>
-      <c r="L34" t="s">
-        <v>274</v>
-      </c>
-      <c r="M34" t="s">
-        <v>274</v>
-      </c>
-      <c r="N34" t="s">
-        <v>274</v>
-      </c>
-      <c r="O34" t="s">
-        <v>274</v>
-      </c>
-      <c r="P34" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>274</v>
-      </c>
-      <c r="R34" t="s">
-        <v>274</v>
-      </c>
-      <c r="S34" t="s">
-        <v>274</v>
-      </c>
-      <c r="T34" t="s">
-        <v>274</v>
-      </c>
-      <c r="U34" t="s">
-        <v>274</v>
-      </c>
-      <c r="V34" t="s">
-        <v>274</v>
-      </c>
-      <c r="W34" t="s">
-        <v>274</v>
-      </c>
-      <c r="X34" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>308</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>310</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>310</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>310</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>274</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>274</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>274</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" t="s">
-        <v>270</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>316</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>324</v>
-      </c>
-      <c r="BZ36" t="s">
-        <v>324</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>315</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>315</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" t="s">
-        <v>271</v>
-      </c>
-      <c r="M38" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>314</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>314</v>
+      <c r="CT78" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/68857.xlsx
+++ b/icd_files/68857.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9B6C6F-2BBC-477C-82EA-46A21233FC01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280FD89-8743-48AA-B7AB-6FDA25439AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="501">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -780,6 +780,9 @@
     <t>12-24</t>
   </si>
   <si>
+    <t>12-25</t>
+  </si>
+  <si>
     <t>12-26</t>
   </si>
   <si>
@@ -810,9 +813,15 @@
     <t>01-04</t>
   </si>
   <si>
+    <t>01-05</t>
+  </si>
+  <si>
     <t>01-06</t>
   </si>
   <si>
+    <t>01-07</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -822,24 +831,183 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>FoLIC Acid</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Magnesium Sulfate</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>CloniDINE</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Phenylephrine</t>
+  </si>
+  <si>
     <t>0.9% Sodium Chloride</t>
   </si>
   <si>
-    <t>Lorazepam</t>
-  </si>
-  <si>
-    <t>5% Dextrose</t>
+    <t>Morphine Sulfate</t>
+  </si>
+  <si>
+    <t>HydrALAzine</t>
+  </si>
+  <si>
+    <t>D5NS</t>
+  </si>
+  <si>
+    <t>HYDROmorphone (Dilaudid)</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Simvastatin</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Dexamethasone</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Ketamine</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Glucagon</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Chlorhexidine Gluconate 0.12% Oral Rinse</t>
+  </si>
+  <si>
+    <t>Potassium Phosphate</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Dextrose 50%</t>
+  </si>
+  <si>
+    <t>Clonidine Patch 0.1 mg/24 hr</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin IV</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Milk of Magnesia</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OxycoDONE (Immediate Release) </t>
+  </si>
+  <si>
+    <t>Cefpodoxime Proxetil</t>
   </si>
   <si>
     <t>00:00</t>
   </si>
   <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>0.5-1 TAB</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
     <t>1000 BAG</t>
   </si>
   <si>
+    <t>2-4 SYR</t>
+  </si>
+  <si>
+    <t>5 VIAL</t>
+  </si>
+  <si>
     <t>1000 mL</t>
   </si>
   <si>
+    <t>2-4 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>100 mL</t>
+  </si>
+  <si>
+    <t>2 TAB</t>
+  </si>
+  <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
     <t>12:47</t>
   </si>
   <si>
@@ -873,6 +1041,24 @@
     <t>23:00</t>
   </si>
   <si>
+    <t>60 mL</t>
+  </si>
+  <si>
+    <t>50 BAG</t>
+  </si>
+  <si>
+    <t>4 BAG</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
+  </si>
+  <si>
+    <t>40 mL</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
     <t>01:00</t>
   </si>
   <si>
@@ -921,6 +1107,15 @@
     <t>2 mL</t>
   </si>
   <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>0.1 TAB</t>
+  </si>
+  <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
     <t>00:13</t>
   </si>
   <si>
@@ -963,30 +1158,69 @@
     <t>18:06</t>
   </si>
   <si>
+    <t>250 mL</t>
+  </si>
+  <si>
+    <t>60 VIAL</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
     <t>1-2 mL</t>
   </si>
   <si>
-    <t>250 mL</t>
-  </si>
-  <si>
-    <t>1 mL</t>
+    <t>200 VIAL</t>
   </si>
   <si>
     <t>500 mL</t>
   </si>
   <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>15 UDCUP</t>
+  </si>
+  <si>
+    <t>30 mL</t>
+  </si>
+  <si>
+    <t>25-100 mL</t>
+  </si>
+  <si>
     <t>Inappropriate Words</t>
   </si>
   <si>
     <t>0.5-2 mL</t>
   </si>
   <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>12.5 SYR</t>
+  </si>
+  <si>
+    <t>1 PTCH</t>
+  </si>
+  <si>
     <t>08:21</t>
   </si>
   <si>
     <t>14:19</t>
   </si>
   <si>
+    <t>0.5-1 SYR</t>
+  </si>
+  <si>
     <t>07:23</t>
   </si>
   <si>
@@ -996,7 +1230,10 @@
     <t>19:15</t>
   </si>
   <si>
-    <t>100 BAG</t>
+    <t>400 BAG</t>
+  </si>
+  <si>
+    <t>30 UDCUP</t>
   </si>
   <si>
     <t>12:11</t>
@@ -1006,6 +1243,15 @@
   </si>
   <si>
     <t>16:16</t>
+  </si>
+  <si>
+    <t>5-10 TAB</t>
+  </si>
+  <si>
+    <t>650 TAB</t>
+  </si>
+  <si>
+    <t>200 TAB</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -4718,7 +4964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000000-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6100,7 +6346,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000001-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7482,7 +7728,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000002-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8969,7 +9215,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000003-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10420,7 +10666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000004-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11349,7 +11595,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000005-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12159,7 +12405,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000006-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12972,7 +13218,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000007-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13782,7 +14028,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-740D-4A50-97B9-A6650169562F}"/>
+              <c16:uniqueId val="{00000008-3048-4F19-AE1C-146B0318B823}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14225,7 +14471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBE21A8-AF02-4DA7-84AF-CCEED8C18B98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE60BD7-D864-453E-ACA1-EA8D1DDA3FDE}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -14250,7 +14496,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>328</v>
+        <v>410</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14263,7 +14509,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -14276,7 +14522,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -14289,7 +14535,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -14302,27 +14548,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>334</v>
+        <v>416</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>335</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -14350,7 +14596,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -14378,11 +14624,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -14405,7 +14651,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14442,7 +14688,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -14465,14 +14711,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>340</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -14495,14 +14741,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -14525,14 +14771,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -14555,14 +14801,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -14585,16 +14831,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -14617,14 +14863,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -14647,10 +14893,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -14658,7 +14904,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -14670,7 +14916,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -14693,7 +14939,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -14709,11 +14955,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -14736,7 +14982,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -14754,7 +15000,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -14777,7 +15023,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -14796,7 +15042,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -14819,10 +15065,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>355</v>
+        <v>437</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -14840,7 +15086,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -14863,52 +15109,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -14931,53 +15177,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -15000,43 +15246,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -15044,7 +15290,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -15067,43 +15313,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -15111,7 +15357,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -15134,43 +15380,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -15178,7 +15424,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -15201,43 +15447,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>360</v>
+        <v>442</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -15245,7 +15491,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -15268,43 +15514,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -15312,7 +15558,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -15335,43 +15581,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -15379,7 +15625,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -15402,43 +15648,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -15446,7 +15692,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -15469,43 +15715,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -15513,7 +15759,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -15536,43 +15782,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -15580,7 +15826,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -15603,43 +15849,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -15647,7 +15893,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -15670,43 +15916,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -15714,7 +15960,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -15737,7 +15983,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -15750,10 +15996,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -15761,7 +16007,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -15784,14 +16030,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>379</v>
+        <v>461</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -15806,7 +16052,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -15829,7 +16075,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -15849,7 +16095,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -15872,7 +16118,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -15892,7 +16138,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -15915,7 +16161,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -15933,11 +16179,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -15960,14 +16206,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -15990,14 +16236,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -16020,14 +16266,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -16050,14 +16296,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -16080,14 +16326,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -16110,14 +16356,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -16140,10 +16386,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -16160,7 +16406,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -16183,7 +16429,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -16201,7 +16447,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -16224,7 +16470,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -16242,7 +16488,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -16265,14 +16511,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -16295,14 +16541,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -16325,24 +16571,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -16365,7 +16611,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -16374,7 +16620,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -16397,14 +16643,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -16412,7 +16658,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -16435,7 +16681,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -16444,7 +16690,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>393</v>
+        <v>475</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -16467,14 +16713,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>393</v>
+        <v>475</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>394</v>
+        <v>476</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -16482,7 +16728,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -16505,7 +16751,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>395</v>
+        <v>477</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -16514,7 +16760,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -16537,24 +16783,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>397</v>
+        <v>479</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>398</v>
+        <v>480</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -16577,7 +16823,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -16586,7 +16832,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -16609,22 +16855,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -16632,7 +16878,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -16655,7 +16901,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -16668,7 +16914,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -16691,32 +16937,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -16739,7 +16985,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -16748,7 +16994,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -16771,14 +17017,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -16786,7 +17032,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -16809,14 +17055,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -16839,12 +17085,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -16872,7 +17118,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -16899,13 +17145,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>413</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>414</v>
+        <v>496</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -16933,7 +17179,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -17045,7 +17291,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -17073,7 +17319,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -17101,7 +17347,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -22610,13 +22856,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:CE38"/>
+  <dimension ref="A30:CT78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>249</v>
       </c>
@@ -22624,39 +22870,39 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>253</v>
@@ -22665,49 +22911,49 @@
         <v>253</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD31" s="1" t="s">
         <v>254</v>
@@ -22731,7 +22977,7 @@
         <v>254</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL31" s="1" t="s">
         <v>255</v>
@@ -22755,10 +23001,10 @@
         <v>255</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AU31" s="1" t="s">
         <v>256</v>
@@ -22782,7 +23028,7 @@
         <v>256</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>257</v>
@@ -22800,10 +23046,10 @@
         <v>257</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BJ31" s="1" t="s">
         <v>258</v>
@@ -22818,843 +23064,1646 @@
         <v>258</v>
       </c>
       <c r="BN31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BO31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BS31" s="1" t="s">
         <v>259</v>
       </c>
       <c r="BT31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BV31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BW31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BX31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BZ31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="CG31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="CH31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="CI31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CL31" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="CM31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CN31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CO31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CP31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CQ31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CR31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CS31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CT31" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" t="s">
+        <v>331</v>
+      </c>
+      <c r="H32" t="s">
+        <v>332</v>
+      </c>
+      <c r="I32" t="s">
+        <v>333</v>
+      </c>
+      <c r="J32" t="s">
+        <v>334</v>
+      </c>
+      <c r="K32" t="s">
+        <v>335</v>
+      </c>
+      <c r="L32" t="s">
+        <v>336</v>
+      </c>
+      <c r="M32" t="s">
+        <v>337</v>
+      </c>
+      <c r="N32" t="s">
+        <v>338</v>
+      </c>
+      <c r="O32" t="s">
+        <v>312</v>
+      </c>
+      <c r="P32" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>312</v>
+      </c>
+      <c r="R32" t="s">
+        <v>312</v>
+      </c>
+      <c r="S32" t="s">
+        <v>312</v>
+      </c>
+      <c r="T32" t="s">
+        <v>312</v>
+      </c>
+      <c r="U32" t="s">
+        <v>345</v>
+      </c>
+      <c r="V32" t="s">
+        <v>346</v>
+      </c>
+      <c r="W32" t="s">
+        <v>347</v>
+      </c>
+      <c r="X32" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>346</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>376</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>377</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>337</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>347</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>356</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>358</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>348</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>365</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>356</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>358</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>348</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>396</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>397</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>335</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>337</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>348</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>399</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>400</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>401</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>347</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>365</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>404</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>358</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>348</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>405</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>356</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>406</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>312</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" t="s">
+        <v>329</v>
+      </c>
+      <c r="I33" t="s">
+        <v>329</v>
+      </c>
+      <c r="J33" t="s">
+        <v>329</v>
+      </c>
+      <c r="K33" t="s">
+        <v>329</v>
+      </c>
+      <c r="L33" t="s">
+        <v>329</v>
+      </c>
+      <c r="M33" t="s">
+        <v>329</v>
+      </c>
+      <c r="N33" t="s">
+        <v>329</v>
+      </c>
+      <c r="O33" t="s">
+        <v>329</v>
+      </c>
+      <c r="P33" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>329</v>
+      </c>
+      <c r="R33" t="s">
+        <v>329</v>
+      </c>
+      <c r="S33" t="s">
+        <v>329</v>
+      </c>
+      <c r="T33" t="s">
+        <v>329</v>
+      </c>
+      <c r="U33" t="s">
+        <v>329</v>
+      </c>
+      <c r="V33" t="s">
+        <v>329</v>
+      </c>
+      <c r="W33" t="s">
+        <v>329</v>
+      </c>
+      <c r="X33" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>372</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>368</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>353</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>391</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>372</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>368</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>329</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>368</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>353</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" t="s">
+        <v>330</v>
+      </c>
+      <c r="H34" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" t="s">
+        <v>330</v>
+      </c>
+      <c r="J34" t="s">
+        <v>330</v>
+      </c>
+      <c r="K34" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" t="s">
+        <v>330</v>
+      </c>
+      <c r="M34" t="s">
+        <v>330</v>
+      </c>
+      <c r="N34" t="s">
+        <v>330</v>
+      </c>
+      <c r="O34" t="s">
+        <v>330</v>
+      </c>
+      <c r="P34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>330</v>
+      </c>
+      <c r="R34" t="s">
+        <v>330</v>
+      </c>
+      <c r="S34" t="s">
+        <v>330</v>
+      </c>
+      <c r="T34" t="s">
+        <v>330</v>
+      </c>
+      <c r="U34" t="s">
+        <v>330</v>
+      </c>
+      <c r="V34" t="s">
+        <v>330</v>
+      </c>
+      <c r="W34" t="s">
+        <v>330</v>
+      </c>
+      <c r="X34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>330</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>375</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>375</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>369</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>375</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>375</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>375</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>369</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>375</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>330</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>375</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>375</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>330</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E36" t="s">
+        <v>319</v>
+      </c>
+      <c r="O36" t="s">
+        <v>319</v>
+      </c>
+      <c r="P36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>319</v>
+      </c>
+      <c r="R36" t="s">
+        <v>319</v>
+      </c>
+      <c r="S36" t="s">
+        <v>319</v>
+      </c>
+      <c r="T36" t="s">
+        <v>319</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>378</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>344</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>324</v>
+      </c>
+      <c r="P37" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>324</v>
+      </c>
+      <c r="R37" t="s">
+        <v>324</v>
+      </c>
+      <c r="S37" t="s">
+        <v>324</v>
+      </c>
+      <c r="T37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" t="s">
+        <v>325</v>
+      </c>
+      <c r="O38" t="s">
+        <v>325</v>
+      </c>
+      <c r="P38" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>325</v>
+      </c>
+      <c r="R38" t="s">
+        <v>325</v>
+      </c>
+      <c r="S38" t="s">
+        <v>325</v>
+      </c>
+      <c r="T38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E32" t="s">
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" t="s">
+        <v>326</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>326</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>382</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>326</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>326</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>324</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>392</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>339</v>
+      </c>
+      <c r="P41" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>343</v>
+      </c>
+      <c r="R41" t="s">
+        <v>343</v>
+      </c>
+      <c r="S41" t="s">
+        <v>343</v>
+      </c>
+      <c r="T41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F32" t="s">
+      <c r="O42" t="s">
+        <v>340</v>
+      </c>
+      <c r="P42" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>344</v>
+      </c>
+      <c r="R42" t="s">
+        <v>340</v>
+      </c>
+      <c r="S42" t="s">
+        <v>342</v>
+      </c>
+      <c r="T42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G32" t="s">
+      <c r="O43" t="s">
+        <v>341</v>
+      </c>
+      <c r="P43" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>341</v>
+      </c>
+      <c r="R43" t="s">
+        <v>341</v>
+      </c>
+      <c r="S43" t="s">
+        <v>341</v>
+      </c>
+      <c r="T43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H32" t="s">
+      <c r="E44" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I32" t="s">
+      <c r="AK45" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J32" t="s">
+      <c r="AK46" t="s">
+        <v>363</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>383</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>383</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>383</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K32" t="s">
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:95" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L32" t="s">
+      <c r="BC48" t="s">
+        <v>379</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M32" t="s">
-        <v>269</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="B49" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" t="s">
+        <v>316</v>
+      </c>
+      <c r="BJ49" t="s">
+        <v>384</v>
+      </c>
+      <c r="BK49" t="s">
+        <v>384</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>384</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="O32" t="s">
+      <c r="B50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="P32" t="s">
+      <c r="B51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="B52" t="s">
+        <v>319</v>
+      </c>
+      <c r="C52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="R32" t="s">
+      <c r="B53" t="s">
+        <v>320</v>
+      </c>
+      <c r="C53" t="s">
+        <v>320</v>
+      </c>
+      <c r="BZ53" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="S32" t="s">
+      <c r="B54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" t="s">
+        <v>321</v>
+      </c>
+      <c r="BJ54" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL54" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="T32" t="s">
+      <c r="B55" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="U32" t="s">
+      <c r="BC56" t="s">
+        <v>380</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>380</v>
+      </c>
+      <c r="CL56" t="s">
+        <v>380</v>
+      </c>
+      <c r="CM56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="V32" t="s">
+      <c r="BC57" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>381</v>
+      </c>
+      <c r="CS57" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>385</v>
+      </c>
+      <c r="BK58" t="s">
+        <v>385</v>
+      </c>
+      <c r="BL58" t="s">
+        <v>385</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="W32" t="s">
+      <c r="BJ59" t="s">
+        <v>361</v>
+      </c>
+      <c r="BK59" t="s">
+        <v>361</v>
+      </c>
+      <c r="BL59" t="s">
+        <v>361</v>
+      </c>
+      <c r="BM59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="X32" t="s">
+      <c r="BJ60" t="s">
+        <v>325</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>325</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="BJ61" t="s">
+        <v>325</v>
+      </c>
+      <c r="BK61" t="s">
+        <v>390</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>325</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="BJ62" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>386</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="BJ63" t="s">
+        <v>387</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>387</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>387</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AB32" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="BJ64" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK64" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL64" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>388</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>388</v>
+      </c>
+      <c r="BL65" t="s">
+        <v>388</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AF32" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="BJ66" t="s">
+        <v>389</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>389</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>389</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="BS67" t="s">
+        <v>393</v>
+      </c>
+      <c r="BT67" t="s">
+        <v>393</v>
+      </c>
+      <c r="CR67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AJ32" t="s">
-        <v>296</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL32" t="s">
+      <c r="BS68" t="s">
+        <v>394</v>
+      </c>
+      <c r="BT68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="BS69" t="s">
+        <v>395</v>
+      </c>
+      <c r="BT69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CF70" t="s">
+        <v>402</v>
+      </c>
+      <c r="CS70" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="CF72" t="s">
+        <v>342</v>
+      </c>
+      <c r="CL72" t="s">
+        <v>342</v>
+      </c>
+      <c r="CM72" t="s">
+        <v>342</v>
+      </c>
+      <c r="CS72" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AO32" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP32" t="s">
+      <c r="CF73" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL73" t="s">
+        <v>316</v>
+      </c>
+      <c r="CM73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CF74" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL75" t="s">
+        <v>316</v>
+      </c>
+      <c r="CM75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="CL76" t="s">
+        <v>344</v>
+      </c>
+      <c r="CM76" t="s">
+        <v>344</v>
+      </c>
+      <c r="CT76" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="CR77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AR32" t="s">
-        <v>312</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>285</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>300</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>294</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>296</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>300</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>294</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>296</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>319</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>281</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>286</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>321</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>322</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>323</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>282</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>269</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>285</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>300</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>325</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>296</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>279</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>269</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>286</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>326</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>294</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>327</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" t="s">
-        <v>273</v>
-      </c>
-      <c r="F33" t="s">
-        <v>273</v>
-      </c>
-      <c r="G33" t="s">
-        <v>273</v>
-      </c>
-      <c r="H33" t="s">
-        <v>273</v>
-      </c>
-      <c r="I33" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" t="s">
-        <v>273</v>
-      </c>
-      <c r="K33" t="s">
-        <v>273</v>
-      </c>
-      <c r="L33" t="s">
-        <v>273</v>
-      </c>
-      <c r="M33" t="s">
-        <v>273</v>
-      </c>
-      <c r="N33" t="s">
-        <v>273</v>
-      </c>
-      <c r="O33" t="s">
-        <v>273</v>
-      </c>
-      <c r="P33" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>273</v>
-      </c>
-      <c r="R33" t="s">
-        <v>273</v>
-      </c>
-      <c r="S33" t="s">
-        <v>273</v>
-      </c>
-      <c r="T33" t="s">
-        <v>273</v>
-      </c>
-      <c r="U33" t="s">
-        <v>291</v>
-      </c>
-      <c r="V33" t="s">
-        <v>291</v>
-      </c>
-      <c r="W33" t="s">
-        <v>291</v>
-      </c>
-      <c r="X33" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>307</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>303</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>317</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>307</v>
-      </c>
-      <c r="BL33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BM33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BQ33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BU33" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>303</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BX33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>291</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>291</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>291</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>291</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>291</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F34" t="s">
-        <v>274</v>
-      </c>
-      <c r="G34" t="s">
-        <v>274</v>
-      </c>
-      <c r="H34" t="s">
-        <v>274</v>
-      </c>
-      <c r="I34" t="s">
-        <v>274</v>
-      </c>
-      <c r="J34" t="s">
-        <v>274</v>
-      </c>
-      <c r="K34" t="s">
-        <v>274</v>
-      </c>
-      <c r="L34" t="s">
-        <v>274</v>
-      </c>
-      <c r="M34" t="s">
-        <v>274</v>
-      </c>
-      <c r="N34" t="s">
-        <v>274</v>
-      </c>
-      <c r="O34" t="s">
-        <v>274</v>
-      </c>
-      <c r="P34" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>274</v>
-      </c>
-      <c r="R34" t="s">
-        <v>274</v>
-      </c>
-      <c r="S34" t="s">
-        <v>274</v>
-      </c>
-      <c r="T34" t="s">
-        <v>274</v>
-      </c>
-      <c r="U34" t="s">
-        <v>274</v>
-      </c>
-      <c r="V34" t="s">
-        <v>274</v>
-      </c>
-      <c r="W34" t="s">
-        <v>274</v>
-      </c>
-      <c r="X34" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>308</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>310</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BB34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>310</v>
-      </c>
-      <c r="BL34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BN34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BP34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>310</v>
-      </c>
-      <c r="BS34" t="s">
-        <v>310</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>274</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>274</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>274</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>274</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>274</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" t="s">
-        <v>270</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>316</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>324</v>
-      </c>
-      <c r="BZ36" t="s">
-        <v>324</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>298</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>315</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>315</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" t="s">
-        <v>271</v>
-      </c>
-      <c r="M38" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>314</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>314</v>
+      <c r="CT78" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
